--- a/Book_Database_With_Samples_And_Format.xlsx
+++ b/Book_Database_With_Samples_And_Format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saswata\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saswata\Documents\Github_Repos\biblioteca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B79D97A-8C48-431E-A55E-49A6D64DB988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D3C3C-0569-4D29-8028-55F2D9F2326A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Book Name</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>To Read. Gifted by a friend.</t>
+  </si>
+  <si>
+    <t>sapiens_front.jpg</t>
+  </si>
+  <si>
+    <t>sapiens_back.jpg</t>
   </si>
 </sst>
 </file>
@@ -179,111 +185,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>65690</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>65689</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>722587</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>722586</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E97ABAD-6217-A5CD-FF31-D417EC19658A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9531569" y="256189"/>
-          <a:ext cx="656897" cy="656897"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>118242</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>72260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676604</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>630622</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D84026-981C-A320-711A-D7DEF0214B9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9584121" y="1090450"/>
-          <a:ext cx="558362" cy="558362"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,7 +477,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +490,8 @@
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -653,6 +555,9 @@
       <c r="H2" t="s">
         <v>23</v>
       </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
@@ -685,6 +590,9 @@
       <c r="H3" t="s">
         <v>23</v>
       </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
       <c r="J3" t="s">
         <v>24</v>
       </c>
@@ -694,6 +602,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Book_Database_With_Samples_And_Format.xlsx
+++ b/Book_Database_With_Samples_And_Format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saswata\Documents\Github_Repos\biblioteca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D3C3C-0569-4D29-8028-55F2D9F2326A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA6225E-F27C-4779-B1EC-811F98618DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Book Name</t>
   </si>
   <si>
-    <t>Original Title</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>Back Cover</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Sapiens</t>
   </si>
   <si>
@@ -97,16 +91,13 @@
     <t>Insert Image</t>
   </si>
   <si>
-    <t>Read in 2024. Highly recommended.</t>
-  </si>
-  <si>
-    <t>To Read. Gifted by a friend.</t>
-  </si>
-  <si>
     <t>sapiens_front.jpg</t>
   </si>
   <si>
     <t>sapiens_back.jpg</t>
+  </si>
+  <si>
+    <t>Book Name (Original Language)</t>
   </si>
 </sst>
 </file>
@@ -474,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,112 +483,102 @@
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2">
         <v>499</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
       <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
       </c>
       <c r="E3">
         <v>350</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
